--- a/BalanceSheet/TXT_bal.xlsx
+++ b/BalanceSheet/TXT_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-178000000.0</v>
+        <v>3705000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>692000000.0</v>
+        <v>3513000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>4252000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>124000000.0</v>
+        <v>4262000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-368000000.0</v>
+        <v>4385000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>4069000000.0</v>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>259000000.0</v>
+        <v>1033000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-346000000.0</v>
+        <v>776000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>133000000.0</v>
+        <v>1121000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-351000000.0</v>
+        <v>982000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>1322000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1378000000.0</v>
@@ -2361,7 +2361,7 @@
         <v>-12000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>24000000.0</v>
+        <v>-342000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>10000000.0</v>
@@ -4098,7 +4098,7 @@
         <v>2862000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>2734000000.0</v>
+        <v>2453000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>3119000000.0</v>
@@ -4225,7 +4225,7 @@
         <v>5308000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>4091000000.0</v>
+        <v>3810000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>4172000000.0</v>
